--- a/Efficcacité surfacique.xlsx
+++ b/Efficcacité surfacique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrateur/Desktop/Axel/Ecole/ENSTA/cours/2A/info/ES201/ES201_TD4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367CEEB0-609D-CD40-BB2B-E93CB5B4148B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5959B19-C870-594C-9F30-AAF02AE1C9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -600,8 +600,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="G77" sqref="G77:G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1682,7 +1682,9 @@
       <c r="I65" s="23"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A66" s="21"/>
+      <c r="A66" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="B66" s="19" t="s">
         <v>26</v>
       </c>
@@ -1697,9 +1699,7 @@
       <c r="I66" s="23"/>
     </row>
     <row r="67" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A67" s="21" t="s">
-        <v>34</v>
-      </c>
+      <c r="A67" s="26"/>
       <c r="B67" s="20" t="s">
         <v>28</v>
       </c>
@@ -1916,7 +1916,7 @@
       <c r="C77" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D77" s="27" t="s">
         <v>33</v>
       </c>
       <c r="E77" s="20" t="s">
@@ -1925,7 +1925,7 @@
       <c r="F77" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G77" s="20" t="s">
+      <c r="G77" s="27" t="s">
         <v>33</v>
       </c>
       <c r="H77" s="23"/>
@@ -1940,7 +1940,7 @@
       <c r="C78" s="4">
         <v>0.4425</v>
       </c>
-      <c r="D78" s="21">
+      <c r="D78" s="28">
         <f>C78/A78</f>
         <v>8.8500000000000004E-4</v>
       </c>
@@ -1950,7 +1950,7 @@
       <c r="F78" s="4">
         <v>0.80349999999999999</v>
       </c>
-      <c r="G78" s="21">
+      <c r="G78" s="28">
         <f>F78/A78</f>
         <v>1.6069999999999999E-3</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="C79" s="4">
         <v>0.44840000000000002</v>
       </c>
-      <c r="D79" s="21">
+      <c r="D79" s="28">
         <f t="shared" ref="D79:D82" si="24">C79/A79</f>
         <v>8.9680000000000001E-4</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="F79" s="4">
         <v>0.82450000000000001</v>
       </c>
-      <c r="G79" s="21">
+      <c r="G79" s="28">
         <f t="shared" ref="G79:G82" si="25">F79/A79</f>
         <v>1.6490000000000001E-3</v>
       </c>
@@ -1990,7 +1990,7 @@
       <c r="C80" s="4">
         <v>0.45629999999999998</v>
       </c>
-      <c r="D80" s="21">
+      <c r="D80" s="28">
         <f t="shared" si="24"/>
         <v>9.1259999999999996E-4</v>
       </c>
@@ -2000,7 +2000,7 @@
       <c r="F80" s="4">
         <v>0.85529999999999995</v>
       </c>
-      <c r="G80" s="21">
+      <c r="G80" s="28">
         <f t="shared" si="25"/>
         <v>1.7105999999999998E-3</v>
       </c>
@@ -2015,7 +2015,7 @@
       <c r="C81" s="4">
         <v>0.46260000000000001</v>
       </c>
-      <c r="D81" s="21">
+      <c r="D81" s="28">
         <f t="shared" si="24"/>
         <v>9.2520000000000005E-4</v>
       </c>
@@ -2025,7 +2025,7 @@
       <c r="F81" s="4">
         <v>0.87060000000000004</v>
       </c>
-      <c r="G81" s="21">
+      <c r="G81" s="28">
         <f t="shared" si="25"/>
         <v>1.7412E-3</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="C82" s="4">
         <v>0.46360000000000001</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="28">
         <f t="shared" si="24"/>
         <v>9.2719999999999999E-4</v>
       </c>
@@ -2050,19 +2050,20 @@
       <c r="F82" s="4">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G82" s="21">
+      <c r="G82" s="28">
         <f t="shared" si="25"/>
         <v>1.766E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="38">
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="E66:G66"/>
     <mergeCell ref="A75:G75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A66:A67"/>
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A65:G65"/>
     <mergeCell ref="A53:F53"/>

--- a/Efficcacité surfacique.xlsx
+++ b/Efficcacité surfacique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrateur/Desktop/Axel/Ecole/ENSTA/cours/2A/info/ES201/ES201_TD4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5959B19-C870-594C-9F30-AAF02AE1C9B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD2BAE-B8D3-6346-B7DC-2CCBFC7351CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -181,6 +181,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -310,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -380,6 +387,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77:G82"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1658,11 +1666,12 @@
       <c r="A63" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
       <c r="H63" s="23"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1">
@@ -1839,7 +1848,7 @@
       <c r="C72" s="20">
         <v>0.31440000000000001</v>
       </c>
-      <c r="D72" s="28">
+      <c r="D72" s="29">
         <f t="shared" si="22"/>
         <v>3.1440000000000001E-3</v>
       </c>
@@ -1849,7 +1858,7 @@
       <c r="F72" s="20">
         <v>0.57499999999999996</v>
       </c>
-      <c r="G72" s="28">
+      <c r="G72" s="29">
         <f t="shared" si="23"/>
         <v>5.7499999999999999E-3</v>
       </c>
@@ -2040,7 +2049,7 @@
       <c r="C82" s="4">
         <v>0.46360000000000001</v>
       </c>
-      <c r="D82" s="28">
+      <c r="D82" s="29">
         <f t="shared" si="24"/>
         <v>9.2719999999999999E-4</v>
       </c>
@@ -2050,7 +2059,7 @@
       <c r="F82" s="4">
         <v>0.88300000000000001</v>
       </c>
-      <c r="G82" s="28">
+      <c r="G82" s="29">
         <f t="shared" si="25"/>
         <v>1.766E-3</v>
       </c>
@@ -2064,8 +2073,8 @@
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="A76:A77"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A63:F63"/>
     <mergeCell ref="A65:G65"/>
+    <mergeCell ref="A63:G63"/>
     <mergeCell ref="A53:F53"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A54:C54"/>

--- a/Efficcacité surfacique.xlsx
+++ b/Efficcacité surfacique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrateur/Desktop/Axel/Ecole/ENSTA/cours/2A/info/ES201/ES201_TD4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD2BAE-B8D3-6346-B7DC-2CCBFC7351CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7492A03C-7758-024E-96E4-7932E2A81900}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -609,7 +609,7 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
